--- a/ProjectTest65/Excel/Register.xlsx
+++ b/ProjectTest65/Excel/Register.xlsx
@@ -548,8 +548,8 @@
   </sheetPr>
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>สมัครสมาชิกสำเร็จ รอการอนุมัติ</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4227,7 +4227,7 @@
     <row r="51" ht="18.75" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B51" s="7" t="n">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>สมัครสมาชิกสำเร็จ รอการอนุมัติ</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>สมัครสมาชิกสำเร็จ รอการอนุมัติ</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>สมัครสมาชิกสำเร็จ รอการอนุมัติ</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>สมัครสมาชิกสำเร็จ รอการอนุมัติ</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>สมัครสมาชิกสำเร็จ รอการอนุมัติ</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>สมัครสมาชิกสำเร็จ รอการอนุมัติ</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4665,7 +4665,7 @@
     <row r="57" ht="18.75" customHeight="1">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B57" s="7" t="n">
@@ -4738,7 +4738,7 @@
     <row r="58" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B58" s="7" t="n">

--- a/ProjectTest65/Excel/Register.xlsx
+++ b/ProjectTest65/Excel/Register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B826357F-F371-42A4-867D-41B068E12D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFEDEAD-16DF-4A9D-B358-D5EC5130168A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -923,15 +923,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -943,6 +934,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1255,8 +1252,8 @@
   </sheetPr>
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1281,7 +1278,7 @@
     <col min="22" max="22" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="41" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1380,7 @@
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B3" s="14">
         <v>2</v>
@@ -1480,11 +1477,11 @@
       <c r="P4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1535,10 +1532,10 @@
       <c r="P5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="T5" s="39"/>
+      <c r="T5" s="43"/>
       <c r="U5" s="12" t="s">
         <v>206</v>
       </c>
@@ -1592,14 +1589,14 @@
       <c r="P6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="42">
+      <c r="S6" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="39">
         <f>COUNTIF(O:O,"Pass")</f>
         <v>58</v>
       </c>
-      <c r="U6" s="42" t="str">
+      <c r="U6" s="39" t="str">
         <f>TEXT(T6/84,"0.00%")</f>
         <v>69.05%</v>
       </c>
@@ -1653,14 +1650,14 @@
       <c r="P7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="45" t="s">
+      <c r="S7" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="40">
         <f>COUNTIF(O:O,"Fail")</f>
         <v>26</v>
       </c>
-      <c r="U7" s="43" t="str">
+      <c r="U7" s="40" t="str">
         <f>TEXT(T7/84,"0.00%")</f>
         <v>30.95%</v>
       </c>
@@ -1814,11 +1811,11 @@
       <c r="P10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
     </row>
     <row r="11" spans="1:21" ht="20.25" customHeight="1">
       <c r="A11" s="13" t="s">
@@ -1869,10 +1866,10 @@
       <c r="P11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="39" t="s">
+      <c r="S11" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="T11" s="39"/>
+      <c r="T11" s="43"/>
       <c r="U11" s="12" t="s">
         <v>206</v>
       </c>
@@ -1927,11 +1924,11 @@
       <c r="S12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="39">
         <f>COUNTIF(P:P,"Pass")</f>
         <v>79</v>
       </c>
-      <c r="U12" s="42" t="str">
+      <c r="U12" s="39" t="str">
         <f>TEXT(T12/84,"0.00%")</f>
         <v>94.05%</v>
       </c>
@@ -1988,11 +1985,11 @@
       <c r="S13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="43">
+      <c r="T13" s="40">
         <f>COUNTIF(P:P,"Fail")</f>
         <v>5</v>
       </c>
-      <c r="U13" s="43" t="str">
+      <c r="U13" s="40" t="str">
         <f>TEXT(T13/84,"0.00%")</f>
         <v>5.95%</v>
       </c>

--- a/ProjectTest65/Excel/Register.xlsx
+++ b/ProjectTest65/Excel/Register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04915696-61C8-4C56-9DF6-BD39E06B5DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756AC30F-EA6E-477D-BDED-F728A38F30BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22416" yWindow="624" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="206">
   <si>
     <t>Execute</t>
   </si>
@@ -83,120 +83,135 @@
     <t>Revise</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ศิรประภา ทาบุตร</t>
+  </si>
+  <si>
+    <t>0923456789</t>
+  </si>
+  <si>
+    <t>03/02/2005</t>
+  </si>
+  <si>
+    <t>ปีการศึกษา 2566/1</t>
+  </si>
+  <si>
+    <t>6504106300</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีสารสนเทศ</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีการประมงเเละทรัพยากรทางน้ำ</t>
+  </si>
+  <si>
+    <t>ต้องการหารายได้มาลดค่าเทอม</t>
+  </si>
+  <si>
+    <t>MJU6504106300@mju.ac.th</t>
+  </si>
+  <si>
+    <t>Siraprapha123</t>
+  </si>
+  <si>
+    <t>สมัครสมาชิกสำเร็จ รอการอนุมัติ</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>6504106301</t>
+  </si>
+  <si>
+    <t>MJU6504106301@mju.ac.th</t>
+  </si>
+  <si>
+    <t>ศิ</t>
+  </si>
+  <si>
+    <t>MJU6504106302@mju.ac.th</t>
+  </si>
+  <si>
+    <t>ศิร</t>
+  </si>
+  <si>
+    <t>MJU6504106303@mju.ac.th</t>
+  </si>
+  <si>
+    <t>สรุปผลการทดสอบ</t>
+  </si>
+  <si>
+    <t>คิดเป็น %</t>
+  </si>
+  <si>
+    <t>ศิรประภาทาบุตรศิรประภา ทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบ</t>
+  </si>
+  <si>
+    <t>MJU6504106304@mju.ac.th</t>
+  </si>
+  <si>
+    <t>ต้องมีความยาวตั้งแต่ 2 - 50 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>ศิรประภาทาบุตรศิรประภา ทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุ</t>
+  </si>
+  <si>
+    <t>MJU6504106305@mju.ac.th</t>
+  </si>
+  <si>
+    <t>Siraprapha Thabut%^</t>
+  </si>
+  <si>
+    <t>MJU6504106306@mju.ac.th</t>
+  </si>
+  <si>
+    <t>กรอกชื่อ-นามสกุลเป็นภาษาไทยเท่านั้น</t>
+  </si>
+  <si>
+    <t>กรุณากรอกชื่อเป็นภาษาไทยเท่านั้น</t>
+  </si>
+  <si>
+    <t>ศ</t>
+  </si>
+  <si>
+    <t>MJU6504106307@mju.ac.th</t>
+  </si>
+  <si>
+    <t>กรุณากรอกชื่อ-นามสกุล ไม่น้อยกว่า 2 และไม่เกิน 125 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>ศิรประภาทาบุตรศิรประภา ทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุต</t>
+  </si>
+  <si>
+    <t>MJU6504106308@mju.ac.th</t>
+  </si>
+  <si>
+    <t>ศิรประภา  ทาบุตร</t>
+  </si>
+  <si>
+    <t>MJU6504106309@mju.ac.th</t>
+  </si>
+  <si>
+    <t>ต้องไม่มีอักขระพิเศษ ช่องว่างระหว่างชื่อ-นามสกุล ต้องไม่เกิน 1 ครั้ง</t>
+  </si>
+  <si>
+    <t>MJU6504106310@mju.ac.th</t>
+  </si>
+  <si>
+    <t>กรุณากรอกชื่อ</t>
+  </si>
+  <si>
+    <t>MJU6504106311@mju.ac.th</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>ศิรประภา ทาบุตร</t>
-  </si>
-  <si>
-    <t>0923456789</t>
-  </si>
-  <si>
-    <t>03/02/2005</t>
-  </si>
-  <si>
-    <t>ปีการศึกษา 2566/1</t>
-  </si>
-  <si>
-    <t>6504106300</t>
-  </si>
-  <si>
-    <t>เทคโนโลยีสารสนเทศ</t>
-  </si>
-  <si>
-    <t>เทคโนโลยีการประมงเเละทรัพยากรทางน้ำ</t>
-  </si>
-  <si>
-    <t>ต้องการหารายได้มาลดค่าเทอม</t>
-  </si>
-  <si>
-    <t>MJU6504106300@mju.ac.th</t>
-  </si>
-  <si>
-    <t>Siraprapha123</t>
-  </si>
-  <si>
-    <t>สมัครสมาชิกสำเร็จ รอการอนุมัติ</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>6504106301</t>
-  </si>
-  <si>
-    <t>MJU6504106301@mju.ac.th</t>
-  </si>
-  <si>
-    <t>ศิ</t>
-  </si>
-  <si>
-    <t>MJU6504106302@mju.ac.th</t>
-  </si>
-  <si>
-    <t>ศิร</t>
-  </si>
-  <si>
-    <t>MJU6504106303@mju.ac.th</t>
-  </si>
-  <si>
-    <t>ศิรประภาทาบุตรศิรประภา ทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบ</t>
-  </si>
-  <si>
-    <t>MJU6504106304@mju.ac.th</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>ศิรประภาทาบุตรศิรประภา ทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุ</t>
-  </si>
-  <si>
-    <t>MJU6504106305@mju.ac.th</t>
-  </si>
-  <si>
-    <t>Siraprapha Thabut%^</t>
-  </si>
-  <si>
-    <t>MJU6504106306@mju.ac.th</t>
-  </si>
-  <si>
-    <t>กรอกชื่อ-นามสกุลเป็นภาษาไทยเท่านั้น</t>
-  </si>
-  <si>
-    <t>ศ</t>
-  </si>
-  <si>
-    <t>MJU6504106307@mju.ac.th</t>
-  </si>
-  <si>
-    <t>กรุณากรอกชื่อ-นามสกุล ไม่น้อยกว่า 2 และไม่เกิน 125 ตัวอักษร</t>
-  </si>
-  <si>
-    <t>ศิรประภาทาบุตรศิรประภา ทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุตรศิรประภาทาบุต</t>
-  </si>
-  <si>
-    <t>MJU6504106308@mju.ac.th</t>
-  </si>
-  <si>
-    <t>ศิรประภา  ทาบุตร</t>
-  </si>
-  <si>
-    <t>MJU6504106309@mju.ac.th</t>
-  </si>
-  <si>
-    <t>ต้องไม่มีอักขระพิเศษ ช่องว่างระหว่างชื่อ-นามสกุล ต้องไม่เกิน 1 ครั้ง</t>
-  </si>
-  <si>
-    <t>MJU6504106310@mju.ac.th</t>
-  </si>
-  <si>
-    <t>กรุณากรอกชื่อ</t>
-  </si>
-  <si>
-    <t>MJU6504106311@mju.ac.th</t>
-  </si>
-  <si>
     <t>092345๔๕89</t>
   </si>
   <si>
@@ -293,9 +308,6 @@
     <t>MJU6504106329@mju.ac.th</t>
   </si>
   <si>
-    <t>ปีการศึกษา 2568/2</t>
-  </si>
-  <si>
     <t>MJU6504106330@mju.ac.th</t>
   </si>
   <si>
@@ -383,6 +395,9 @@
     <t>ต้องมีตัวอักษรไม่น้อยกว่า 4 และไม่เกิน 66 ตัวอักษร</t>
   </si>
   <si>
+    <t>ชื่อสาขาต้องมีความยาว 4-50 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
     <t>เคมี</t>
   </si>
   <si>
@@ -482,6 +497,9 @@
     <t>ต้องเป็นภาษาไทยเท่านั้น</t>
   </si>
   <si>
+    <t>กรุณากรอกเหตุผลในการเข้าโครงการเป็นภาษาไทยเท่านั้น และมีความยาว 10 ตัวขึ้นไป</t>
+  </si>
+  <si>
     <t>หารายได้เ</t>
   </si>
   <si>
@@ -548,6 +566,9 @@
     <t>กรุณากรอกอีเมลให้อยู่ในรูปแบบของ MJU หรือ mju เท่านั้น</t>
   </si>
   <si>
+    <t>อีเมลต้องเป็นตัวอักษรภาษาอังกฤษและตัวเลขต้องขึ้นต้นด้วย mju เท่านั้นและมีความยาว 23 ตัวเท่านั้น</t>
+  </si>
+  <si>
     <t>mju 123456789@mju.ac.th</t>
   </si>
   <si>
@@ -587,9 +608,6 @@
     <t>Sira123</t>
   </si>
   <si>
-    <t>รหัสผ่านไม่ถูกต้อง</t>
-  </si>
-  <si>
     <t>MJU6504106384@mju.ac.th</t>
   </si>
   <si>
@@ -632,10 +650,7 @@
     <t>กรุณากรอกรหัสผ่าน</t>
   </si>
   <si>
-    <t>สรุปผลการทดสอบ</t>
-  </si>
-  <si>
-    <t>คิดเป็น %</t>
+    <t>ปีการศึกษา 2566/2</t>
   </si>
 </sst>
 </file>
@@ -790,12 +805,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -822,7 +837,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -908,16 +923,17 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,30 +1247,30 @@
   </sheetPr>
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O87" sqref="O87"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65.85546875" customWidth="1"/>
-    <col min="14" max="14" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="65.88671875" customWidth="1"/>
+    <col min="14" max="14" width="89.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="19.5" customHeight="1">
@@ -1308,7 +1324,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="13">
@@ -1347,14 +1363,18 @@
       <c r="M2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
+      <c r="N2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P2" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="13">
@@ -1393,14 +1413,18 @@
       <c r="M3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P3" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="13">
@@ -1439,19 +1463,23 @@
       <c r="M4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
+      <c r="N4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="42" t="s">
         <v>14</v>
       </c>
       <c r="T4" s="43"/>
       <c r="U4" s="43"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="13">
@@ -1490,28 +1518,32 @@
       <c r="M5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
+      <c r="N5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="T5" s="42"/>
+      <c r="S5" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="43"/>
       <c r="U5" s="12" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="13">
         <v>5</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>18</v>
@@ -1535,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>26</v>
@@ -1543,8 +1575,12 @@
       <c r="M6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
+      <c r="N6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P6" s="21" t="s">
         <v>28</v>
       </c>
@@ -1553,22 +1589,22 @@
       </c>
       <c r="T6" s="38">
         <f>COUNTIF(O:O,"Pass")</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U6" s="38" t="str">
         <f>TEXT(T6/84,"0.00%")</f>
-        <v>0.00%</v>
+        <v>67.86%</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="13">
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>18</v>
@@ -1592,40 +1628,44 @@
         <v>24</v>
       </c>
       <c r="K7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
+      <c r="O7" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="S7" s="41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T7" s="39">
         <f>COUNTIF(O:O,"Fail")</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U7" s="39" t="str">
         <f>TEXT(T7/84,"0.00%")</f>
-        <v>0.00%</v>
+        <v>32.14%</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="13">
         <v>7</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>18</v>
@@ -1649,29 +1689,33 @@
         <v>24</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P8" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="13">
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>18</v>
@@ -1695,29 +1739,33 @@
         <v>24</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P9" s="21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="13">
         <v>9</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>18</v>
@@ -1741,34 +1789,38 @@
         <v>24</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="42" t="s">
         <v>15</v>
       </c>
       <c r="T10" s="43"/>
       <c r="U10" s="43"/>
     </row>
     <row r="11" spans="1:21" ht="20.25" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="13">
         <v>10</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>18</v>
@@ -1792,29 +1844,33 @@
         <v>24</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="T11" s="42"/>
+      <c r="S11" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="43"/>
       <c r="U11" s="12" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="13">
@@ -1843,16 +1899,20 @@
         <v>24</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P12" s="21" t="s">
         <v>28</v>
       </c>
@@ -1861,11 +1921,11 @@
       </c>
       <c r="T12" s="38">
         <f>COUNTIF(P:P,"Pass")</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U12" s="38" t="str">
         <f>TEXT(T12/84,"0.00%")</f>
-        <v>94.05%</v>
+        <v>96.43%</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="19.5" customHeight="1">
@@ -1900,7 +1960,7 @@
         <v>24</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>26</v>
@@ -1908,26 +1968,30 @@
       <c r="M13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
+      <c r="N13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P13" s="21" t="s">
         <v>28</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T13" s="39">
         <f>COUNTIF(P:P,"Fail")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U13" s="39" t="str">
         <f>TEXT(T13/84,"0.00%")</f>
-        <v>5.95%</v>
+        <v>3.57%</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="20.25" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B14" s="13">
         <v>13</v>
@@ -1936,7 +2000,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>19</v>
@@ -1957,23 +2021,27 @@
         <v>24</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P14" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="19.5" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B15" s="13">
         <v>14</v>
@@ -1982,7 +2050,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>19</v>
@@ -2003,16 +2071,20 @@
         <v>24</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P15" s="21" t="s">
         <v>28</v>
       </c>
@@ -2028,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>19</v>
@@ -2049,7 +2121,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>26</v>
@@ -2057,8 +2129,12 @@
       <c r="M16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21"/>
+      <c r="N16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P16" s="21" t="s">
         <v>28</v>
       </c>
@@ -2074,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>19</v>
@@ -2095,7 +2171,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>26</v>
@@ -2103,8 +2179,12 @@
       <c r="M17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
+      <c r="N17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P17" s="21" t="s">
         <v>28</v>
       </c>
@@ -2141,7 +2221,7 @@
         <v>24</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>26</v>
@@ -2149,8 +2229,12 @@
       <c r="M18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
+      <c r="N18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P18" s="21" t="s">
         <v>28</v>
       </c>
@@ -2166,7 +2250,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>19</v>
@@ -2187,16 +2271,20 @@
         <v>24</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P19" s="21" t="s">
         <v>28</v>
       </c>
@@ -2212,7 +2300,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>19</v>
@@ -2233,16 +2321,20 @@
         <v>24</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P20" s="21" t="s">
         <v>28</v>
       </c>
@@ -2279,7 +2371,7 @@
         <v>24</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>26</v>
@@ -2287,8 +2379,12 @@
       <c r="M21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
+      <c r="N21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P21" s="21" t="s">
         <v>28</v>
       </c>
@@ -2304,7 +2400,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>19</v>
@@ -2325,16 +2421,20 @@
         <v>24</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P22" s="21" t="s">
         <v>28</v>
       </c>
@@ -2369,16 +2469,20 @@
         <v>24</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
+        <v>79</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P23" s="21" t="s">
         <v>28</v>
       </c>
@@ -2415,7 +2519,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>26</v>
@@ -2423,8 +2527,12 @@
       <c r="M24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
+      <c r="N24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P24" s="21" t="s">
         <v>28</v>
       </c>
@@ -2443,7 +2551,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>20</v>
@@ -2461,16 +2569,20 @@
         <v>24</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
+        <v>83</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P25" s="21" t="s">
         <v>28</v>
       </c>
@@ -2507,7 +2619,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>26</v>
@@ -2515,8 +2627,12 @@
       <c r="M26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
+      <c r="N26" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P26" s="21" t="s">
         <v>28</v>
       </c>
@@ -2535,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>20</v>
@@ -2553,16 +2669,20 @@
         <v>24</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L27" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P27" s="21" t="s">
         <v>28</v>
       </c>
@@ -2597,16 +2717,20 @@
         <v>24</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
+        <v>89</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P28" s="21" t="s">
         <v>28</v>
       </c>
@@ -2643,7 +2767,7 @@
         <v>24</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>26</v>
@@ -2651,8 +2775,12 @@
       <c r="M29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
+      <c r="N29" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P29" s="21" t="s">
         <v>28</v>
       </c>
@@ -2674,7 +2802,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="G30" s="16">
         <v>6504106330</v>
@@ -2689,7 +2817,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L30" s="18" t="s">
         <v>26</v>
@@ -2697,10 +2825,14 @@
       <c r="M30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="20"/>
-      <c r="O30" s="21"/>
+      <c r="N30" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P30" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18.75" customHeight="1">
@@ -2733,16 +2865,20 @@
         <v>24</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L31" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P31" s="21" t="s">
         <v>28</v>
       </c>
@@ -2779,7 +2915,7 @@
         <v>24</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L32" s="18" t="s">
         <v>26</v>
@@ -2787,8 +2923,12 @@
       <c r="M32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N32" s="20"/>
-      <c r="O32" s="21"/>
+      <c r="N32" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P32" s="21" t="s">
         <v>28</v>
       </c>
@@ -2813,7 +2953,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>22</v>
@@ -2825,16 +2965,20 @@
         <v>24</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L33" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P33" s="21" t="s">
         <v>28</v>
       </c>
@@ -2859,7 +3003,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>22</v>
@@ -2871,16 +3015,20 @@
         <v>24</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L34" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P34" s="21" t="s">
         <v>28</v>
       </c>
@@ -2917,16 +3065,20 @@
         <v>24</v>
       </c>
       <c r="K35" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L35" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="N35" s="20"/>
-      <c r="O35" s="21"/>
+      <c r="N35" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O35" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P35" s="21" t="s">
         <v>28</v>
       </c>
@@ -2951,7 +3103,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>22</v>
@@ -2963,7 +3115,7 @@
         <v>24</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L36" s="18" t="s">
         <v>26</v>
@@ -2971,8 +3123,12 @@
       <c r="M36" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N36" s="20"/>
-      <c r="O36" s="21"/>
+      <c r="N36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P36" s="21" t="s">
         <v>28</v>
       </c>
@@ -2997,7 +3153,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>22</v>
@@ -3009,16 +3165,20 @@
         <v>24</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L37" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P37" s="21" t="s">
         <v>28</v>
       </c>
@@ -3043,7 +3203,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>22</v>
@@ -3055,16 +3215,20 @@
         <v>24</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L38" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P38" s="21" t="s">
         <v>28</v>
       </c>
@@ -3089,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>22</v>
@@ -3101,16 +3265,20 @@
         <v>24</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L39" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="N39" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P39" s="21" t="s">
         <v>28</v>
       </c>
@@ -3145,16 +3313,20 @@
         <v>24</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L40" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P40" s="21" t="s">
         <v>28</v>
       </c>
@@ -3191,7 +3363,7 @@
         <v>24</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>26</v>
@@ -3199,8 +3371,12 @@
       <c r="M41" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N41" s="20"/>
-      <c r="O41" s="21"/>
+      <c r="N41" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P41" s="21" t="s">
         <v>28</v>
       </c>
@@ -3228,7 +3404,7 @@
         <v>6504106342</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>23</v>
@@ -3237,16 +3413,20 @@
         <v>24</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="N42" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P42" s="21" t="s">
         <v>28</v>
       </c>
@@ -3274,7 +3454,7 @@
         <v>6504106343</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>23</v>
@@ -3283,16 +3463,20 @@
         <v>24</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="N43" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O43" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P43" s="21" t="s">
         <v>28</v>
       </c>
@@ -3320,7 +3504,7 @@
         <v>6504106344</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>23</v>
@@ -3329,7 +3513,7 @@
         <v>24</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L44" s="18" t="s">
         <v>26</v>
@@ -3337,8 +3521,12 @@
       <c r="M44" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="21"/>
+      <c r="N44" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P44" s="21" t="s">
         <v>28</v>
       </c>
@@ -3366,7 +3554,7 @@
         <v>6504106345</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>23</v>
@@ -3375,7 +3563,7 @@
         <v>24</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L45" s="18" t="s">
         <v>26</v>
@@ -3383,8 +3571,12 @@
       <c r="M45" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="20"/>
-      <c r="O45" s="21"/>
+      <c r="N45" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P45" s="21" t="s">
         <v>28</v>
       </c>
@@ -3412,27 +3604,31 @@
         <v>6504106346</v>
       </c>
       <c r="H46" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L46" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="L46" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M46" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" s="20"/>
-      <c r="O46" s="21"/>
+      <c r="O46" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P46" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="18.75" customHeight="1">
@@ -3458,7 +3654,7 @@
         <v>6504106347</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>23</v>
@@ -3467,7 +3663,7 @@
         <v>24</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L47" s="18" t="s">
         <v>26</v>
@@ -3475,10 +3671,14 @@
       <c r="M47" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N47" s="20"/>
-      <c r="O47" s="21"/>
+      <c r="N47" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O47" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P47" s="21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="18.75" customHeight="1">
@@ -3504,7 +3704,7 @@
         <v>6504106348</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>23</v>
@@ -3513,16 +3713,20 @@
         <v>24</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L48" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N48" s="20"/>
-      <c r="O48" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P48" s="21" t="s">
         <v>28</v>
       </c>
@@ -3557,16 +3761,20 @@
         <v>24</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="N49" s="20"/>
-      <c r="O49" s="21"/>
+        <v>132</v>
+      </c>
+      <c r="N49" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P49" s="21" t="s">
         <v>28</v>
       </c>
@@ -3603,7 +3811,7 @@
         <v>24</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>26</v>
@@ -3611,8 +3819,12 @@
       <c r="M50" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N50" s="20"/>
-      <c r="O50" s="21"/>
+      <c r="N50" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P50" s="21" t="s">
         <v>28</v>
       </c>
@@ -3643,13 +3855,13 @@
         <v>22</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>26</v>
@@ -3657,8 +3869,12 @@
       <c r="M51" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N51" s="20"/>
-      <c r="O51" s="21"/>
+      <c r="N51" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P51" s="21" t="s">
         <v>28</v>
       </c>
@@ -3689,13 +3905,13 @@
         <v>22</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L52" s="18" t="s">
         <v>26</v>
@@ -3703,8 +3919,12 @@
       <c r="M52" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N52" s="20"/>
-      <c r="O52" s="21"/>
+      <c r="N52" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P52" s="21" t="s">
         <v>28</v>
       </c>
@@ -3735,13 +3955,13 @@
         <v>22</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L53" s="18" t="s">
         <v>26</v>
@@ -3749,8 +3969,12 @@
       <c r="M53" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N53" s="20"/>
-      <c r="O53" s="21"/>
+      <c r="N53" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P53" s="21" t="s">
         <v>28</v>
       </c>
@@ -3781,13 +4005,13 @@
         <v>22</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L54" s="18" t="s">
         <v>26</v>
@@ -3795,8 +4019,12 @@
       <c r="M54" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N54" s="20"/>
-      <c r="O54" s="21"/>
+      <c r="N54" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P54" s="21" t="s">
         <v>28</v>
       </c>
@@ -3827,13 +4055,13 @@
         <v>22</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J55" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L55" s="18" t="s">
         <v>26</v>
@@ -3841,8 +4069,12 @@
       <c r="M55" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N55" s="20"/>
-      <c r="O55" s="21"/>
+      <c r="N55" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P55" s="21" t="s">
         <v>28</v>
       </c>
@@ -3873,13 +4105,13 @@
         <v>22</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J56" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L56" s="18" t="s">
         <v>26</v>
@@ -3887,8 +4119,12 @@
       <c r="M56" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N56" s="20"/>
-      <c r="O56" s="21"/>
+      <c r="N56" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P56" s="21" t="s">
         <v>28</v>
       </c>
@@ -3919,13 +4155,13 @@
         <v>22</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L57" s="18" t="s">
         <v>26</v>
@@ -3933,8 +4169,12 @@
       <c r="M57" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N57" s="20"/>
-      <c r="O57" s="21"/>
+      <c r="N57" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O57" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P57" s="21" t="s">
         <v>28</v>
       </c>
@@ -3969,16 +4209,20 @@
         <v>24</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L58" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="N58" s="20"/>
-      <c r="O58" s="21"/>
+        <v>149</v>
+      </c>
+      <c r="N58" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P58" s="21" t="s">
         <v>28</v>
       </c>
@@ -4015,7 +4259,7 @@
         <v>24</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L59" s="18" t="s">
         <v>26</v>
@@ -4023,8 +4267,12 @@
       <c r="M59" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="20"/>
-      <c r="O59" s="21"/>
+      <c r="N59" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P59" s="21" t="s">
         <v>28</v>
       </c>
@@ -4058,19 +4306,23 @@
         <v>23</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L60" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="N60" s="20"/>
-      <c r="O60" s="21"/>
+        <v>153</v>
+      </c>
+      <c r="N60" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P60" s="21" t="s">
         <v>28</v>
       </c>
@@ -4104,19 +4356,23 @@
         <v>23</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L61" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="N61" s="20"/>
-      <c r="O61" s="21"/>
+        <v>157</v>
+      </c>
+      <c r="N61" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P61" s="21" t="s">
         <v>28</v>
       </c>
@@ -4150,10 +4406,10 @@
         <v>23</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L62" s="18" t="s">
         <v>26</v>
@@ -4161,8 +4417,12 @@
       <c r="M62" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N62" s="20"/>
-      <c r="O62" s="21"/>
+      <c r="N62" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P62" s="21" t="s">
         <v>28</v>
       </c>
@@ -4196,10 +4456,10 @@
         <v>23</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L63" s="18" t="s">
         <v>26</v>
@@ -4207,8 +4467,12 @@
       <c r="M63" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N63" s="20"/>
-      <c r="O63" s="21"/>
+      <c r="N63" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P63" s="21" t="s">
         <v>28</v>
       </c>
@@ -4242,10 +4506,10 @@
         <v>23</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L64" s="18" t="s">
         <v>26</v>
@@ -4253,8 +4517,12 @@
       <c r="M64" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N64" s="20"/>
-      <c r="O64" s="21"/>
+      <c r="N64" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P64" s="21" t="s">
         <v>28</v>
       </c>
@@ -4288,10 +4556,10 @@
         <v>23</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L65" s="18" t="s">
         <v>26</v>
@@ -4299,8 +4567,12 @@
       <c r="M65" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="20"/>
-      <c r="O65" s="21"/>
+      <c r="N65" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P65" s="21" t="s">
         <v>28</v>
       </c>
@@ -4334,19 +4606,23 @@
         <v>23</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L66" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="N66" s="20"/>
-      <c r="O66" s="21"/>
+        <v>157</v>
+      </c>
+      <c r="N66" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P66" s="21" t="s">
         <v>28</v>
       </c>
@@ -4380,19 +4656,23 @@
         <v>23</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L67" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="N67" s="20"/>
-      <c r="O67" s="21"/>
+        <v>170</v>
+      </c>
+      <c r="N67" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P67" s="21" t="s">
         <v>28</v>
       </c>
@@ -4427,16 +4707,20 @@
       </c>
       <c r="J68" s="23"/>
       <c r="K68" s="19" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L68" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M68" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="N68" s="20"/>
-      <c r="O68" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="N68" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P68" s="21" t="s">
         <v>28</v>
       </c>
@@ -4473,7 +4757,7 @@
         <v>24</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L69" s="18" t="s">
         <v>26</v>
@@ -4481,8 +4765,12 @@
       <c r="M69" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N69" s="20"/>
-      <c r="O69" s="21"/>
+      <c r="N69" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O69" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P69" s="21" t="s">
         <v>28</v>
       </c>
@@ -4519,7 +4807,7 @@
         <v>24</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L70" s="18" t="s">
         <v>26</v>
@@ -4527,8 +4815,12 @@
       <c r="M70" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N70" s="20"/>
-      <c r="O70" s="21"/>
+      <c r="N70" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O70" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P70" s="21" t="s">
         <v>28</v>
       </c>
@@ -4565,23 +4857,27 @@
         <v>24</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L71" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M71" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="N71" s="20"/>
-      <c r="O71" s="21"/>
+        <v>176</v>
+      </c>
+      <c r="N71" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O71" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P71" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="18.75" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B72" s="13">
         <v>71</v>
@@ -4611,23 +4907,27 @@
         <v>24</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L72" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="N72" s="20"/>
-      <c r="O72" s="21"/>
+        <v>179</v>
+      </c>
+      <c r="N72" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O72" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P72" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="18.75" customHeight="1">
       <c r="A73" s="14" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B73" s="13">
         <v>72</v>
@@ -4657,16 +4957,20 @@
         <v>24</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L73" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="N73" s="20"/>
-      <c r="O73" s="21"/>
+        <v>180</v>
+      </c>
+      <c r="N73" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="O73" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P73" s="21" t="s">
         <v>28</v>
       </c>
@@ -4707,10 +5011,14 @@
         <v>26</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="N74" s="20"/>
-      <c r="O74" s="21"/>
+        <v>181</v>
+      </c>
+      <c r="N74" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P74" s="21" t="s">
         <v>28</v>
       </c>
@@ -4747,7 +5055,7 @@
         <v>24</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="L75" s="18" t="s">
         <v>26</v>
@@ -4755,8 +5063,12 @@
       <c r="M75" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N75" s="20"/>
-      <c r="O75" s="21"/>
+      <c r="N75" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P75" s="21" t="s">
         <v>28</v>
       </c>
@@ -4793,23 +5105,27 @@
         <v>24</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M76" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N76" s="20"/>
-      <c r="O76" s="21"/>
+      <c r="N76" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O76" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P76" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="16.899999999999999" customHeight="1">
+    <row r="77" spans="1:16" ht="16.95" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B77" s="13">
         <v>76</v>
@@ -4839,23 +5155,27 @@
         <v>24</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M77" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="N77" s="20"/>
-      <c r="O77" s="21"/>
+        <v>187</v>
+      </c>
+      <c r="N77" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O77" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P77" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="16.899999999999999" customHeight="1">
+    <row r="78" spans="1:16" ht="16.95" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B78" s="13">
         <v>77</v>
@@ -4885,23 +5205,25 @@
         <v>24</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="M78" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="N78" s="20"/>
-      <c r="O78" s="21"/>
+        <v>190</v>
+      </c>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O78" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P78" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="16.899999999999999" customHeight="1">
-      <c r="A79" s="14" t="s">
-        <v>16</v>
+    <row r="79" spans="1:16" ht="16.95" customHeight="1">
+      <c r="A79" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B79" s="13">
         <v>78</v>
@@ -4931,21 +5253,25 @@
         <v>24</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M79" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N79" s="20"/>
-      <c r="O79" s="21"/>
+      <c r="N79" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O79" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="P79" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="16.899999999999999" customHeight="1">
+    <row r="80" spans="1:16" ht="16.95" customHeight="1">
       <c r="A80" s="14" t="s">
         <v>16</v>
       </c>
@@ -4977,21 +5303,25 @@
         <v>24</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L80" s="18" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M80" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N80" s="20"/>
-      <c r="O80" s="21"/>
+      <c r="N80" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O80" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P80" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="16.899999999999999" customHeight="1">
+    <row r="81" spans="1:16" ht="16.95" customHeight="1">
       <c r="A81" s="14" t="s">
         <v>16</v>
       </c>
@@ -5023,21 +5353,25 @@
         <v>24</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L81" s="18" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M81" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N81" s="20"/>
-      <c r="O81" s="21"/>
+      <c r="N81" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O81" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P81" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="16.899999999999999" customHeight="1">
+    <row r="82" spans="1:16" ht="16.95" customHeight="1">
       <c r="A82" s="14" t="s">
         <v>16</v>
       </c>
@@ -5069,21 +5403,25 @@
         <v>24</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M82" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N82" s="20"/>
-      <c r="O82" s="21"/>
+      <c r="N82" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O82" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P82" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="16.899999999999999" customHeight="1">
+    <row r="83" spans="1:16" ht="16.95" customHeight="1">
       <c r="A83" s="14" t="s">
         <v>16</v>
       </c>
@@ -5115,21 +5453,25 @@
         <v>24</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="N83" s="20"/>
-      <c r="O83" s="21"/>
+        <v>188</v>
+      </c>
+      <c r="N83" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O83" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P83" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="16.899999999999999" customHeight="1">
+    <row r="84" spans="1:16" ht="16.95" customHeight="1">
       <c r="A84" s="14" t="s">
         <v>16</v>
       </c>
@@ -5161,16 +5503,20 @@
         <v>24</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="N84" s="20"/>
-      <c r="O84" s="21"/>
+        <v>188</v>
+      </c>
+      <c r="N84" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O84" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P84" s="21" t="s">
         <v>28</v>
       </c>
@@ -5207,14 +5553,18 @@
         <v>24</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L85" s="23"/>
       <c r="M85" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="N85" s="20"/>
-      <c r="O85" s="21"/>
+        <v>204</v>
+      </c>
+      <c r="N85" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O85" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="P85" s="21" t="s">
         <v>28</v>
       </c>
@@ -5236,12 +5586,12 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S10:U10"/>
     <mergeCell ref="S11:T11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
 </worksheet>
 </file>
--- a/ProjectTest65/Excel/Register.xlsx
+++ b/ProjectTest65/Excel/Register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756AC30F-EA6E-477D-BDED-F728A38F30BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB98CF5-6B10-4C28-AC20-31E1AE2F23B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="9780" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="205">
   <si>
     <t>Execute</t>
   </si>
@@ -506,9 +506,6 @@
     <t>MJU6504106361@mju.ac.th</t>
   </si>
   <si>
-    <t>กรุณากรอกเหตุผลอย่างน้อยตั้งแต่ 10 - 255 ตัวอักษร</t>
-  </si>
-  <si>
     <t>หารายได้เพ</t>
   </si>
   <si>
@@ -563,18 +560,12 @@
     <t>Siraprapha012@gmail.com</t>
   </si>
   <si>
-    <t>กรุณากรอกอีเมลให้อยู่ในรูปแบบของ MJU หรือ mju เท่านั้น</t>
-  </si>
-  <si>
     <t>อีเมลต้องเป็นตัวอักษรภาษาอังกฤษและตัวเลขต้องขึ้นต้นด้วย mju เท่านั้นและมีความยาว 23 ตัวเท่านั้น</t>
   </si>
   <si>
     <t>mju 123456789@mju.ac.th</t>
   </si>
   <si>
-    <t>อีเมลจะไม่มีช่องว่างระหว่างตัวอักษร กรุณากรอกใหม่อีกครั้ง</t>
-  </si>
-  <si>
     <t>อีเมล์นี้ถูกใช้แล้ว</t>
   </si>
   <si>
@@ -651,6 +642,12 @@
   </si>
   <si>
     <t>ปีการศึกษา 2566/2</t>
+  </si>
+  <si>
+    <t>ควรปรับปรุงให้การกรอกชื่อสาขาตั้งแต่ 4-66 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>ในระบบปีการศึกษาเป็นปีปัจจุบันเรื่อย</t>
   </si>
 </sst>
 </file>
@@ -772,7 +769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -802,6 +799,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
@@ -810,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -928,6 +934,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,8 +1257,8 @@
   </sheetPr>
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1265,10 +1275,11 @@
     <col min="10" max="10" width="38.44140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="65.88671875" customWidth="1"/>
+    <col min="13" max="13" width="74.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="89.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="48" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.109375" customWidth="1"/>
   </cols>
@@ -1472,11 +1483,11 @@
       <c r="P4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -1527,10 +1538,10 @@
       <c r="P5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="S5" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="43"/>
+      <c r="T5" s="45"/>
       <c r="U5" s="12" t="s">
         <v>36</v>
       </c>
@@ -1756,6 +1767,7 @@
       <c r="P9" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:21" ht="20.25" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -1806,11 +1818,12 @@
       <c r="P10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="Q10" s="42"/>
+      <c r="S10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
     </row>
     <row r="11" spans="1:21" ht="20.25" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -1861,10 +1874,10 @@
       <c r="P11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="44" t="s">
+      <c r="S11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="T11" s="43"/>
+      <c r="T11" s="45"/>
       <c r="U11" s="12" t="s">
         <v>36</v>
       </c>
@@ -2139,7 +2152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1">
+    <row r="17" spans="1:17" ht="18.75" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
@@ -2189,7 +2202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="18.75" customHeight="1">
+    <row r="18" spans="1:17" ht="18.75" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
@@ -2239,7 +2252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1">
+    <row r="19" spans="1:17" ht="18.75" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
@@ -2289,7 +2302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1">
+    <row r="20" spans="1:17" ht="18.75" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>16</v>
       </c>
@@ -2339,7 +2352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1">
+    <row r="21" spans="1:17" ht="18.75" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
@@ -2389,7 +2402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1">
+    <row r="22" spans="1:17" ht="18.75" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>16</v>
       </c>
@@ -2439,7 +2452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1">
+    <row r="23" spans="1:17" ht="18.75" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
@@ -2487,7 +2500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1">
+    <row r="24" spans="1:17" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>16</v>
       </c>
@@ -2537,7 +2550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18.75" customHeight="1">
+    <row r="25" spans="1:17" ht="18.75" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>16</v>
       </c>
@@ -2587,7 +2600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1">
+    <row r="26" spans="1:17" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>16</v>
       </c>
@@ -2637,7 +2650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1">
+    <row r="27" spans="1:17" ht="18.75" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>16</v>
       </c>
@@ -2687,7 +2700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1">
+    <row r="28" spans="1:17" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>16</v>
       </c>
@@ -2735,7 +2748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1">
+    <row r="29" spans="1:17" ht="18.75" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1">
+    <row r="30" spans="1:17" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>16</v>
       </c>
@@ -2802,7 +2815,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G30" s="16">
         <v>6504106330</v>
@@ -2834,8 +2847,11 @@
       <c r="P30" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="18.75" customHeight="1">
+      <c r="Q30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18.75" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>16</v>
       </c>
@@ -2883,7 +2899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1">
+    <row r="32" spans="1:17" ht="18.75" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>16</v>
       </c>
@@ -2933,7 +2949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="18.75" customHeight="1">
+    <row r="33" spans="1:17" ht="18.75" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>16</v>
       </c>
@@ -2983,7 +2999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="18.75" customHeight="1">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>16</v>
       </c>
@@ -3033,7 +3049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="18.75" customHeight="1">
+    <row r="35" spans="1:17" ht="18.75" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>16</v>
       </c>
@@ -3083,7 +3099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="18.75" customHeight="1">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>16</v>
       </c>
@@ -3133,7 +3149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="18.75" customHeight="1">
+    <row r="37" spans="1:17" ht="18.75" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>16</v>
       </c>
@@ -3183,7 +3199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="18.75" customHeight="1">
+    <row r="38" spans="1:17" ht="18.75" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>16</v>
       </c>
@@ -3233,7 +3249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="18.75" customHeight="1">
+    <row r="39" spans="1:17" ht="18.75" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>16</v>
       </c>
@@ -3283,7 +3299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="18.75" customHeight="1">
+    <row r="40" spans="1:17" ht="18.75" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>16</v>
       </c>
@@ -3331,7 +3347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="18.75" customHeight="1">
+    <row r="41" spans="1:17" ht="18.75" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>16</v>
       </c>
@@ -3381,7 +3397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="18.75" customHeight="1">
+    <row r="42" spans="1:17" ht="18.75" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>16</v>
       </c>
@@ -3431,7 +3447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="18.75" customHeight="1">
+    <row r="43" spans="1:17" ht="18.75" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>16</v>
       </c>
@@ -3481,7 +3497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="18.75" customHeight="1">
+    <row r="44" spans="1:17" ht="18.75" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>16</v>
       </c>
@@ -3531,7 +3547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="18.75" customHeight="1">
+    <row r="45" spans="1:17" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>16</v>
       </c>
@@ -3581,7 +3597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="18.75" customHeight="1">
+    <row r="46" spans="1:17" ht="18.75" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>16</v>
       </c>
@@ -3630,8 +3646,11 @@
       <c r="P46" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="18.75" customHeight="1">
+      <c r="Q46" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>16</v>
       </c>
@@ -3680,8 +3699,9 @@
       <c r="P47" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="18.75" customHeight="1">
+      <c r="Q47" s="43"/>
+    </row>
+    <row r="48" spans="1:17" ht="18.75" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>16</v>
       </c>
@@ -4365,7 +4385,7 @@
         <v>26</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N61" s="20" t="s">
         <v>154</v>
@@ -4406,10 +4426,10 @@
         <v>23</v>
       </c>
       <c r="J62" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K62" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>159</v>
       </c>
       <c r="L62" s="18" t="s">
         <v>26</v>
@@ -4456,10 +4476,10 @@
         <v>23</v>
       </c>
       <c r="J63" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K63" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>161</v>
       </c>
       <c r="L63" s="18" t="s">
         <v>26</v>
@@ -4506,10 +4526,10 @@
         <v>23</v>
       </c>
       <c r="J64" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K64" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="K64" s="19" t="s">
-        <v>163</v>
       </c>
       <c r="L64" s="18" t="s">
         <v>26</v>
@@ -4556,10 +4576,10 @@
         <v>23</v>
       </c>
       <c r="J65" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K65" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="K65" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="L65" s="18" t="s">
         <v>26</v>
@@ -4606,16 +4626,16 @@
         <v>23</v>
       </c>
       <c r="J66" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K66" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="K66" s="19" t="s">
-        <v>167</v>
-      </c>
       <c r="L66" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N66" s="20" t="s">
         <v>154</v>
@@ -4656,19 +4676,19 @@
         <v>23</v>
       </c>
       <c r="J67" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K67" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="K67" s="19" t="s">
+      <c r="L67" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="L67" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M67" s="20" t="s">
-        <v>170</v>
-      </c>
       <c r="N67" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O67" s="21" t="s">
         <v>28</v>
@@ -4707,16 +4727,16 @@
       </c>
       <c r="J68" s="23"/>
       <c r="K68" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M68" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="L68" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M68" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="N68" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O68" s="21" t="s">
         <v>28</v>
@@ -4757,7 +4777,7 @@
         <v>24</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L69" s="18" t="s">
         <v>26</v>
@@ -4807,7 +4827,7 @@
         <v>24</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L70" s="18" t="s">
         <v>26</v>
@@ -4857,16 +4877,16 @@
         <v>24</v>
       </c>
       <c r="K71" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L71" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M71" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="L71" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M71" s="20" t="s">
-        <v>176</v>
-      </c>
       <c r="N71" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O71" s="21" t="s">
         <v>40</v>
@@ -4907,16 +4927,16 @@
         <v>24</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L72" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M72" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N72" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O72" s="21" t="s">
         <v>40</v>
@@ -4957,16 +4977,16 @@
         <v>24</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L73" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M73" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N73" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O73" s="21" t="s">
         <v>28</v>
@@ -5011,10 +5031,10 @@
         <v>26</v>
       </c>
       <c r="M74" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N74" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O74" s="21" t="s">
         <v>28</v>
@@ -5055,7 +5075,7 @@
         <v>24</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L75" s="18" t="s">
         <v>26</v>
@@ -5105,10 +5125,10 @@
         <v>24</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M76" s="20" t="s">
         <v>27</v>
@@ -5155,16 +5175,16 @@
         <v>24</v>
       </c>
       <c r="K77" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L77" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M77" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="N77" s="20" t="s">
         <v>185</v>
-      </c>
-      <c r="L77" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="M77" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="N77" s="20" t="s">
-        <v>188</v>
       </c>
       <c r="O77" s="21" t="s">
         <v>40</v>
@@ -5205,14 +5225,16 @@
         <v>24</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="M78" s="20"/>
+        <v>187</v>
+      </c>
+      <c r="M78" s="20" t="s">
+        <v>184</v>
+      </c>
       <c r="N78" s="20" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="O78" s="21" t="s">
         <v>40</v>
@@ -5253,16 +5275,16 @@
         <v>24</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M79" s="20" t="s">
         <v>27</v>
       </c>
       <c r="N79" s="20" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="O79" s="21" t="s">
         <v>40</v>
@@ -5303,10 +5325,10 @@
         <v>24</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L80" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M80" s="20" t="s">
         <v>27</v>
@@ -5353,10 +5375,10 @@
         <v>24</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L81" s="18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M81" s="20" t="s">
         <v>27</v>
@@ -5403,10 +5425,10 @@
         <v>24</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M82" s="20" t="s">
         <v>27</v>
@@ -5453,16 +5475,16 @@
         <v>24</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M83" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N83" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O83" s="21" t="s">
         <v>28</v>
@@ -5503,16 +5525,16 @@
         <v>24</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M84" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N84" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O84" s="21" t="s">
         <v>28</v>
@@ -5553,14 +5575,14 @@
         <v>24</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L85" s="23"/>
       <c r="M85" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N85" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O85" s="21" t="s">
         <v>28</v>
@@ -5585,7 +5607,8 @@
       <c r="K87" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="Q46:Q47"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="S5:T5"/>
